--- a/biology/Médecine/Centre_hospitalier_Jacques_Cœur_de_Bourges/Centre_hospitalier_Jacques_Cœur_de_Bourges.xlsx
+++ b/biology/Médecine/Centre_hospitalier_Jacques_Cœur_de_Bourges/Centre_hospitalier_Jacques_Cœur_de_Bourges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_Jacques_C%C5%93ur_de_Bourges</t>
+          <t>Centre_hospitalier_Jacques_Cœur_de_Bourges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier Jacques Cœur de Bourges, souvent appelé centre hospitalier Jacques Cœur, est un établissement public de santé situé à Bourges, dans le département du Cher, en région Centre-Val de Loire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_Jacques_C%C5%93ur_de_Bourges</t>
+          <t>Centre_hospitalier_Jacques_Cœur_de_Bourges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À Bourges, la présence d'un Hôtel-Dieu pour les malades, appelé Maison-Dieu, remonte à 591, il était alors situé à proximité de la cathédrale[1]. La construction de l'Hôtel-Dieu rue Gambon remonte au début du XVIe siècle après le grand incendie qui détruisit, en 1487, une grande partie de la ville. 
-Le site de l'hôpital Jacques Cœur a ouvert en novembre 1994[2] et celui de l'hôpital Taillegrain a été renommé ainsi en 1996[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Bourges, la présence d'un Hôtel-Dieu pour les malades, appelé Maison-Dieu, remonte à 591, il était alors situé à proximité de la cathédrale. La construction de l'Hôtel-Dieu rue Gambon remonte au début du XVIe siècle après le grand incendie qui détruisit, en 1487, une grande partie de la ville. 
+Le site de l'hôpital Jacques Cœur a ouvert en novembre 1994 et celui de l'hôpital Taillegrain a été renommé ainsi en 1996.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_Jacques_C%C5%93ur_de_Bourges</t>
+          <t>Centre_hospitalier_Jacques_Cœur_de_Bourges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Établissements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le centre hospitalier Jacques Cœur se répartit sur deux sites :
 Le centre hospitalier Jacques Cœur, situé avenue François Mitterrand ;
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_Jacques_C%C5%93ur_de_Bourges</t>
+          <t>Centre_hospitalier_Jacques_Cœur_de_Bourges</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Plateau technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le centre hospitalier Jacques Cœur dispose d'un plateau technique composé de[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le centre hospitalier Jacques Cœur dispose d'un plateau technique composé de :
 2 appareils d'imagerie par résonance magnétique (IRM), dont 1 en co-utilisation
 2 appareils de tomodensitométrie (scanners)
 2 salles de coronarographie et d'angioplastie coronaire
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_Jacques_C%C5%93ur_de_Bourges</t>
+          <t>Centre_hospitalier_Jacques_Cœur_de_Bourges</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,6 +633,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_Jacques_C%C5%93ur_de_Bourges</t>
+          <t>Centre_hospitalier_Jacques_Cœur_de_Bourges</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,9 +660,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le centre hospitalier Jacques Cœur a été dirigé par Agnès Cornillault de 2013[5] à 2023. Il est actuellement dirigé par Pierre-Henri Guillet depuis juin 2023.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre hospitalier Jacques Cœur a été dirigé par Agnès Cornillault de 2013 à 2023. Il est actuellement dirigé par Pierre-Henri Guillet depuis juin 2023.
 </t>
         </is>
       </c>
@@ -653,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_Jacques_C%C5%93ur_de_Bourges</t>
+          <t>Centre_hospitalier_Jacques_Cœur_de_Bourges</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -672,6 +694,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
